--- a/v3dot0/Primer/data/SW2001_Data.xlsx
+++ b/v3dot0/Primer/data/SW2001_Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\321471\Desktop\VAR-Toolbox\Manual\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jambro/Google Drive/VAR-Toolbox/v3dot0/Primer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC5955-810A-DE49-9974-BFEA522A1731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -534,7 +535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -663,6 +664,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -698,6 +716,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -873,19 +908,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>167</v>
       </c>
@@ -896,7 +931,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>164</v>
       </c>
@@ -907,7 +942,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -921,7 +956,7 @@
         <v>3.93333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -935,7 +970,7 @@
         <v>3.6966666666666699</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -949,7 +984,7 @@
         <v>2.9366666666666701</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -963,7 +998,7 @@
         <v>2.29666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -977,7 +1012,7 @@
         <v>2.0033333333333299</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -991,7 +1026,7 @@
         <v>1.7333333333333301</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1040,7 @@
         <v>1.68333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1068,7 @@
         <v>2.4566666666666701</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1082,7 @@
         <v>2.60666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1096,7 @@
         <v>2.8466666666666698</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1110,7 @@
         <v>2.9233333333333298</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1124,7 @@
         <v>2.9666666666666699</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1138,7 @@
         <v>2.9633333333333298</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1117,7 +1152,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1166,7 @@
         <v>3.45333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1180,7 @@
         <v>3.4633333333333298</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1159,7 +1194,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1208,7 @@
         <v>3.4566666666666701</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1222,7 @@
         <v>3.5766666666666702</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1236,7 @@
         <v>3.9733333333333301</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>4.0766666666666698</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1229,7 +1264,7 @@
         <v>4.0733333333333297</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1243,7 +1278,7 @@
         <v>4.1666666666666696</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1292,7 @@
         <v>4.5566666666666702</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1306,7 @@
         <v>4.9133333333333304</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1334,7 @@
         <v>5.5633333333333299</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1313,7 +1348,7 @@
         <v>4.8233333333333297</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1327,7 +1362,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1376,7 @@
         <v>3.89333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1355,7 +1390,7 @@
         <v>4.1733333333333302</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1404,7 @@
         <v>4.7866666666666697</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1383,7 +1418,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1397,7 +1432,7 @@
         <v>5.9433333333333298</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1446,7 @@
         <v>5.9166666666666696</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1425,7 +1460,7 @@
         <v>6.56666666666667</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>8.3266666666666698</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1453,7 +1488,7 @@
         <v>8.9833333333333307</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1467,7 +1502,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1481,7 +1516,7 @@
         <v>8.5733333333333306</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1495,7 +1530,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1509,7 +1544,7 @@
         <v>6.7033333333333296</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +1558,7 @@
         <v>5.56666666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1537,7 +1572,7 @@
         <v>3.85666666666667</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1551,7 +1586,7 @@
         <v>4.5633333333333299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>5.4733333333333301</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1579,7 +1614,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1593,7 +1628,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1607,7 +1642,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1621,7 +1656,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1635,7 +1670,7 @@
         <v>5.14333333333333</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>6.5366666666666697</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1663,7 +1698,7 @@
         <v>7.81666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1677,7 +1712,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1691,7 +1726,7 @@
         <v>9.9966666666666697</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1705,7 +1740,7 @@
         <v>9.3233333333333306</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1719,7 +1754,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -1733,7 +1768,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1782,7 @@
         <v>9.3466666666666693</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -1761,7 +1796,7 @@
         <v>6.3033333333333301</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -1775,7 +1810,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -1789,7 +1824,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1803,7 +1838,7 @@
         <v>5.4133333333333304</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1817,7 +1852,7 @@
         <v>4.8266666666666698</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1831,7 +1866,7 @@
         <v>5.1966666666666699</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -1845,7 +1880,7 @@
         <v>5.2833333333333297</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1859,7 +1894,7 @@
         <v>4.8733333333333304</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1887,7 +1922,7 @@
         <v>5.1566666666666698</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1901,7 +1936,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1915,7 +1950,7 @@
         <v>6.5133333333333301</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1929,7 +1964,7 @@
         <v>6.7566666666666704</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1943,7 +1978,7 @@
         <v>7.2833333333333297</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1957,7 +1992,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1971,7 +2006,7 @@
         <v>9.5833333333333304</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1985,7 +2020,7 @@
         <v>10.0733333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -1999,7 +2034,7 @@
         <v>10.18</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2013,7 +2048,7 @@
         <v>10.946666666666699</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>13.5766666666667</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -2041,7 +2076,7 @@
         <v>15.046666666666701</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>12.686666666666699</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2069,7 +2104,7 @@
         <v>9.8366666666666696</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2083,7 +2118,7 @@
         <v>15.8533333333333</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2097,7 +2132,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2111,7 +2146,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>17.5766666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2139,7 +2174,7 @@
         <v>13.5866666666667</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2153,7 +2188,7 @@
         <v>14.2266666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2167,7 +2202,7 @@
         <v>14.5133333333333</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>11.0066666666667</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -2195,7 +2230,7 @@
         <v>9.2866666666666706</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>8.6533333333333307</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -2223,7 +2258,7 @@
         <v>8.8033333333333292</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2237,7 +2272,7 @@
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2251,7 +2286,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -2265,7 +2300,7 @@
         <v>9.6866666666666692</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -2279,7 +2314,7 @@
         <v>10.5566666666667</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2293,7 +2328,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -2307,7 +2342,7 @@
         <v>9.2666666666666693</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -2321,7 +2356,7 @@
         <v>8.4766666666666701</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -2335,7 +2370,7 @@
         <v>7.9233333333333302</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -2349,7 +2384,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -2363,7 +2398,7 @@
         <v>8.1033333333333299</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -2377,7 +2412,7 @@
         <v>7.8266666666666698</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -2391,7 +2426,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -2405,7 +2440,7 @@
         <v>6.2066666666666697</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -2419,7 +2454,7 @@
         <v>6.2666666666666702</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -2433,7 +2468,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -2447,7 +2482,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2461,7 +2496,7 @@
         <v>6.8433333333333302</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -2475,7 +2510,7 @@
         <v>6.9166666666666696</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -2489,7 +2524,7 @@
         <v>6.6633333333333304</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -2503,7 +2538,7 @@
         <v>7.1566666666666698</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -2517,7 +2552,7 @@
         <v>7.9833333333333298</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -2531,7 +2566,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -2545,7 +2580,7 @@
         <v>9.4433333333333298</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -2559,7 +2594,7 @@
         <v>9.7266666666666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -2573,7 +2608,7 @@
         <v>9.0833333333333304</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -2587,7 +2622,7 @@
         <v>8.6133333333333297</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -2601,7 +2636,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -2615,7 +2650,7 @@
         <v>8.2433333333333305</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -2629,7 +2664,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -2643,7 +2678,7 @@
         <v>7.7433333333333296</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -2657,7 +2692,7 @@
         <v>6.4266666666666703</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -2671,7 +2706,7 @@
         <v>5.8633333333333297</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -2685,7 +2720,7 @@
         <v>5.64333333333333</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>4.81666666666667</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -2713,7 +2748,7 @@
         <v>4.0233333333333299</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -2727,7 +2762,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -2741,7 +2776,7 @@
         <v>3.2566666666666699</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -2755,7 +2790,7 @@
         <v>3.0366666666666702</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -2769,7 +2804,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -2783,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -2797,7 +2832,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -2811,7 +2846,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -2825,7 +2860,7 @@
         <v>3.2133333333333298</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -2839,7 +2874,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -2853,7 +2888,7 @@
         <v>4.4866666666666699</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -2867,7 +2902,7 @@
         <v>5.1666666666666696</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -2881,7 +2916,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -2895,7 +2930,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -2909,7 +2944,7 @@
         <v>5.7966666666666704</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -2923,7 +2958,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -2937,7 +2972,7 @@
         <v>5.3633333333333297</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -2951,7 +2986,7 @@
         <v>5.2433333333333296</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -2965,7 +3000,7 @@
         <v>5.3066666666666702</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -2979,7 +3014,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -2993,7 +3028,7 @@
         <v>5.2766666666666699</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -3007,7 +3042,7 @@
         <v>5.5233333333333299</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -3021,7 +3056,7 @@
         <v>5.5333333333333297</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -3035,7 +3070,7 @@
         <v>5.5066666666666704</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -3049,7 +3084,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -3063,7 +3098,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -3077,7 +3112,7 @@
         <v>5.5333333333333297</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -3091,7 +3126,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -3105,7 +3140,7 @@
         <v>4.7333333333333298</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3119,7 +3154,7 @@
         <v>4.7466666666666697</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -3133,7 +3168,7 @@
         <v>5.0933333333333302</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -3147,7 +3182,7 @@
         <v>5.3066666666666702</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -3161,7 +3196,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -3175,7 +3210,7 @@
         <v>6.2733333333333299</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -3189,7 +3224,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>163</v>
       </c>
